--- a/data/trygghet_ålder.xlsx
+++ b/data/trygghet_ålder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WILIDF17\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://svenskidrott-my.sharepoint.com/personal/william_lind_rfsisu_se/Documents/Dokument/GitHub/svenskstatistik-livsstil/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABABFAB-116C-4EC4-851F-B19BBF0D931C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{5ABABFAB-116C-4EC4-851F-B19BBF0D931C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4726E3EA-9AA8-479B-9F35-FF320E9B08B8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="000005YU" sheetId="2" r:id="rId1"/>
@@ -20,23 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
-  <si>
-    <t>Undersökningarna av levnadsförhållanden, otrygghet. Andel personer i procent efter indikator, redovisningsgrupp, kön och årsintervall</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>2024-2024</t>
   </si>
   <si>
-    <t>avstått från att gå ut</t>
-  </si>
-  <si>
     <t>16-29 år</t>
   </si>
   <si>
-    <t>kvinnor och män</t>
-  </si>
-  <si>
     <t>30-49 år</t>
   </si>
   <si>
@@ -46,70 +37,25 @@
     <t>65+ år</t>
   </si>
   <si>
-    <t>utsatt för hot</t>
-  </si>
-  <si>
-    <t>utsatt för våld</t>
-  </si>
-  <si>
-    <t>.. = Uppgiften är inte tillgänglig, för osäker för att anges eller borttagen av sekretesskäl.</t>
-  </si>
-  <si>
-    <t>indikator:</t>
-  </si>
-  <si>
-    <t>Dokumentation kopplad till redovisningen i Statistikdatabasen finns på &lt;a href='https://www.scb.se/hitta-statistik/statistik-efter-amne/befolkning-och-levnadsforhallanden/levnadsforhallanden/undersokningarna-av-levnadsforhallanden-ulf-silc/'&gt;www.scb.se/ulf&lt;/a&gt; under avsnittet Fördjupad information.</t>
-  </si>
-  <si>
-    <t>Senaste uppdatering:</t>
-  </si>
-  <si>
-    <t>20250221 08:00</t>
-  </si>
-  <si>
-    <t>Källa:</t>
-  </si>
-  <si>
-    <t>SCB</t>
-  </si>
-  <si>
-    <t>Kontaktperson:</t>
-  </si>
-  <si>
-    <t>Undersökningarna av levnadsförhållanden (ULF), SCB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +46 010-479 50 00</t>
-  </si>
-  <si>
-    <t>ulfsilc@scb.se</t>
-  </si>
-  <si>
-    <t>Sort:</t>
-  </si>
-  <si>
-    <t>andel</t>
-  </si>
-  <si>
-    <t>Datatyp:</t>
-  </si>
-  <si>
-    <t>Flöde</t>
-  </si>
-  <si>
-    <t>Officiell statistik</t>
-  </si>
-  <si>
-    <t>Databas:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistikdatabasen </t>
-  </si>
-  <si>
-    <t>Intern referenskod:</t>
-  </si>
-  <si>
-    <t>000005YU</t>
+    <t>Avstått från att gå ut</t>
+  </si>
+  <si>
+    <t>Utsatt för hot</t>
+  </si>
+  <si>
+    <t>Utsatt för våld</t>
+  </si>
+  <si>
+    <t>Indikator</t>
+  </si>
+  <si>
+    <t>Ålder</t>
+  </si>
+  <si>
+    <t>Kön</t>
+  </si>
+  <si>
+    <t>Totalt</t>
   </si>
 </sst>
 </file>
@@ -119,16 +65,9 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -164,8 +103,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,266 +407,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="4" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
